--- a/EstadisticaFrecuencia.xlsx
+++ b/EstadisticaFrecuencia.xlsx
@@ -121,7 +121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,10 +131,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,13 +154,12 @@
   <dimension ref="A1:G603"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="L72" activeCellId="0" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,11 +171,11 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -214,11 +209,11 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -236,6 +231,9 @@
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -253,6 +251,9 @@
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -270,6 +271,9 @@
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -287,6 +291,9 @@
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -304,6 +311,9 @@
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -321,6 +331,9 @@
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -338,6 +351,9 @@
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -355,6 +371,9 @@
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -372,6 +391,9 @@
       <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -389,6 +411,9 @@
       <c r="F13" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -406,6 +431,9 @@
       <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -423,6 +451,9 @@
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -440,6 +471,9 @@
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -457,6 +491,9 @@
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -474,6 +511,9 @@
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -491,6 +531,9 @@
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -508,6 +551,9 @@
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -525,6 +571,9 @@
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -542,6 +591,9 @@
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -559,6 +611,9 @@
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -576,6 +631,9 @@
       <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -593,6 +651,9 @@
       <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -610,6 +671,9 @@
       <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -627,6 +691,9 @@
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -644,6 +711,9 @@
       <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -661,6 +731,9 @@
       <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -678,6 +751,9 @@
       <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -695,6 +771,9 @@
       <c r="F31" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -712,6 +791,9 @@
       <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -729,6 +811,9 @@
       <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -746,6 +831,9 @@
       <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -763,6 +851,9 @@
       <c r="F35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -780,6 +871,9 @@
       <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -797,6 +891,9 @@
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -814,6 +911,9 @@
       <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -831,6 +931,9 @@
       <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -848,6 +951,9 @@
       <c r="F40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -865,6 +971,9 @@
       <c r="F41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -882,6 +991,9 @@
       <c r="F42" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -899,6 +1011,9 @@
       <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -916,6 +1031,9 @@
       <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -933,6 +1051,9 @@
       <c r="F45" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -950,6 +1071,9 @@
       <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -967,6 +1091,9 @@
       <c r="F47" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -984,6 +1111,9 @@
       <c r="F48" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -1001,6 +1131,9 @@
       <c r="F49" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -1018,6 +1151,9 @@
       <c r="F50" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -1035,6 +1171,9 @@
       <c r="F51" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -1052,6 +1191,9 @@
       <c r="F52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -1069,6 +1211,9 @@
       <c r="F53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -1086,6 +1231,9 @@
       <c r="F54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -1103,6 +1251,9 @@
       <c r="F55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -1120,6 +1271,9 @@
       <c r="F56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -1137,6 +1291,9 @@
       <c r="F57" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -1154,6 +1311,9 @@
       <c r="F58" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -1171,6 +1331,9 @@
       <c r="F59" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -1188,6 +1351,9 @@
       <c r="F60" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -1205,6 +1371,9 @@
       <c r="F61" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -1222,6 +1391,9 @@
       <c r="F62" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -1239,6 +1411,9 @@
       <c r="F63" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -1256,6 +1431,9 @@
       <c r="F64" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G64" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -1273,6 +1451,9 @@
       <c r="F65" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G65" s="0" t="n">
+        <v>657</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -1290,6 +1471,9 @@
       <c r="F66" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G66" s="0" t="n">
+        <v>2738</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -1307,6 +1491,9 @@
       <c r="F67" s="1" t="n">
         <v>122</v>
       </c>
+      <c r="G67" s="0" t="n">
+        <v>4138</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -1324,6 +1511,9 @@
       <c r="F68" s="1" t="n">
         <v>848</v>
       </c>
+      <c r="G68" s="0" t="n">
+        <v>2033</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -1341,6 +1531,9 @@
       <c r="F69" s="1" t="n">
         <v>2851</v>
       </c>
+      <c r="G69" s="0" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -1358,6 +1551,9 @@
       <c r="F70" s="1" t="n">
         <v>3553</v>
       </c>
+      <c r="G70" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -1375,6 +1571,9 @@
       <c r="F71" s="1" t="n">
         <v>1996</v>
       </c>
+      <c r="G71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -1392,6 +1591,9 @@
       <c r="F72" s="1" t="n">
         <v>563</v>
       </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -1409,6 +1611,9 @@
       <c r="F73" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -1426,6 +1631,9 @@
       <c r="F74" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -1443,6 +1651,9 @@
       <c r="F75" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -1460,6 +1671,9 @@
       <c r="F76" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -1477,6 +1691,9 @@
       <c r="F77" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -1494,6 +1711,9 @@
       <c r="F78" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -1511,6 +1731,9 @@
       <c r="F79" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -1528,6 +1751,9 @@
       <c r="F80" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -1545,6 +1771,9 @@
       <c r="F81" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -1562,6 +1791,9 @@
       <c r="F82" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
@@ -1579,6 +1811,9 @@
       <c r="F83" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -1596,6 +1831,9 @@
       <c r="F84" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G84" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -1613,6 +1851,9 @@
       <c r="F85" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G85" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -1630,6 +1871,9 @@
       <c r="F86" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G86" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -1647,6 +1891,9 @@
       <c r="F87" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G87" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -1664,6 +1911,9 @@
       <c r="F88" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G88" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -1681,6 +1931,9 @@
       <c r="F89" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G89" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -1698,6 +1951,9 @@
       <c r="F90" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G90" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -1715,6 +1971,9 @@
       <c r="F91" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G91" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -1732,6 +1991,9 @@
       <c r="F92" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G92" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -1749,6 +2011,9 @@
       <c r="F93" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G93" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -1766,6 +2031,9 @@
       <c r="F94" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G94" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -1783,6 +2051,9 @@
       <c r="F95" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G95" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -1800,6 +2071,9 @@
       <c r="F96" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G96" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -1817,6 +2091,9 @@
       <c r="F97" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G97" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
@@ -1834,6 +2111,9 @@
       <c r="F98" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G98" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -1851,6 +2131,9 @@
       <c r="F99" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G99" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -1868,6 +2151,9 @@
       <c r="F100" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G100" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -1885,6 +2171,9 @@
       <c r="F101" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G101" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -1902,6 +2191,9 @@
       <c r="F102" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G102" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -1919,6 +2211,9 @@
       <c r="F103" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
@@ -1936,6 +2231,9 @@
       <c r="F104" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G104" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -1953,6 +2251,9 @@
       <c r="F105" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G105" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
@@ -1970,6 +2271,9 @@
       <c r="F106" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G106" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
@@ -1987,6 +2291,9 @@
       <c r="F107" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G107" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -2004,6 +2311,9 @@
       <c r="F108" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G108" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
@@ -2021,6 +2331,9 @@
       <c r="F109" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G109" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -2038,6 +2351,9 @@
       <c r="F110" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G110" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -2055,6 +2371,9 @@
       <c r="F111" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G111" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
@@ -2072,6 +2391,9 @@
       <c r="F112" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G112" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
@@ -2089,6 +2411,9 @@
       <c r="F113" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G113" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -2106,6 +2431,9 @@
       <c r="F114" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G114" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -2123,6 +2451,9 @@
       <c r="F115" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G115" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -2140,6 +2471,9 @@
       <c r="F116" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G116" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -2157,6 +2491,9 @@
       <c r="F117" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G117" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -2174,6 +2511,9 @@
       <c r="F118" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G118" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -2191,6 +2531,9 @@
       <c r="F119" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G119" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -2208,6 +2551,9 @@
       <c r="F120" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G120" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
@@ -2225,6 +2571,9 @@
       <c r="F121" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G121" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
@@ -2242,6 +2591,9 @@
       <c r="F122" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G122" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
@@ -2259,6 +2611,9 @@
       <c r="F123" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G123" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
@@ -2276,6 +2631,9 @@
       <c r="F124" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G124" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
@@ -2293,6 +2651,9 @@
       <c r="F125" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G125" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
@@ -2310,6 +2671,9 @@
       <c r="F126" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G126" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
@@ -2327,6 +2691,9 @@
       <c r="F127" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G127" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -2344,6 +2711,9 @@
       <c r="F128" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G128" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
@@ -2361,6 +2731,9 @@
       <c r="F129" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G129" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
@@ -2378,6 +2751,9 @@
       <c r="F130" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G130" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -2395,6 +2771,9 @@
       <c r="F131" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G131" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
@@ -2412,6 +2791,9 @@
       <c r="F132" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G132" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
@@ -2429,6 +2811,9 @@
       <c r="F133" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G133" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -2446,6 +2831,9 @@
       <c r="F134" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G134" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -2463,6 +2851,9 @@
       <c r="F135" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G135" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -2480,6 +2871,9 @@
       <c r="F136" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G136" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -2497,6 +2891,9 @@
       <c r="F137" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G137" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -2514,6 +2911,9 @@
       <c r="F138" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G138" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -2531,6 +2931,9 @@
       <c r="F139" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G139" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
@@ -2548,6 +2951,9 @@
       <c r="F140" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G140" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -2565,6 +2971,9 @@
       <c r="F141" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G141" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -2582,6 +2991,9 @@
       <c r="F142" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G142" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -2599,6 +3011,9 @@
       <c r="F143" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -2616,6 +3031,9 @@
       <c r="F144" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G144" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -2633,6 +3051,9 @@
       <c r="F145" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G145" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -2650,6 +3071,9 @@
       <c r="F146" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G146" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -2667,6 +3091,9 @@
       <c r="F147" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G147" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -2684,6 +3111,9 @@
       <c r="F148" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G148" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -2701,6 +3131,9 @@
       <c r="F149" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G149" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -2718,6 +3151,9 @@
       <c r="F150" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G150" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -2735,6 +3171,9 @@
       <c r="F151" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G151" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -2752,6 +3191,9 @@
       <c r="F152" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G152" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -2769,6 +3211,9 @@
       <c r="F153" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G153" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -2786,6 +3231,9 @@
       <c r="F154" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G154" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -2803,6 +3251,9 @@
       <c r="F155" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G155" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -2820,6 +3271,9 @@
       <c r="F156" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G156" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
@@ -2837,6 +3291,9 @@
       <c r="F157" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G157" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
@@ -2854,6 +3311,9 @@
       <c r="F158" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G158" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
@@ -2871,6 +3331,9 @@
       <c r="F159" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G159" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -2888,6 +3351,9 @@
       <c r="F160" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G160" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -2905,6 +3371,9 @@
       <c r="F161" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G161" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
@@ -2922,6 +3391,9 @@
       <c r="F162" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G162" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
@@ -2939,6 +3411,9 @@
       <c r="F163" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G163" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
@@ -2956,6 +3431,9 @@
       <c r="F164" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
@@ -2973,6 +3451,9 @@
       <c r="F165" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G165" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
@@ -2990,6 +3471,9 @@
       <c r="F166" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G166" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
@@ -3007,6 +3491,9 @@
       <c r="F167" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G167" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
@@ -3024,6 +3511,9 @@
       <c r="F168" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G168" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
@@ -3041,6 +3531,9 @@
       <c r="F169" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G169" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
@@ -3058,6 +3551,9 @@
       <c r="F170" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G170" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
@@ -3075,6 +3571,9 @@
       <c r="F171" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G171" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
@@ -3092,6 +3591,9 @@
       <c r="F172" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G172" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
@@ -3109,6 +3611,9 @@
       <c r="F173" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G173" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
@@ -3126,6 +3631,9 @@
       <c r="F174" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G174" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
@@ -3143,6 +3651,9 @@
       <c r="F175" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G175" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
@@ -3160,6 +3671,9 @@
       <c r="F176" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G176" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
@@ -3177,6 +3691,9 @@
       <c r="F177" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G177" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
@@ -3194,6 +3711,9 @@
       <c r="F178" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G178" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
@@ -3211,6 +3731,9 @@
       <c r="F179" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G179" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
@@ -3228,6 +3751,9 @@
       <c r="F180" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G180" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
@@ -3245,6 +3771,9 @@
       <c r="F181" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G181" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
@@ -3262,6 +3791,9 @@
       <c r="F182" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G182" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
@@ -3279,6 +3811,9 @@
       <c r="F183" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G183" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
@@ -3296,6 +3831,9 @@
       <c r="F184" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G184" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
@@ -3313,6 +3851,9 @@
       <c r="F185" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G185" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
@@ -3330,6 +3871,9 @@
       <c r="F186" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G186" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
@@ -3347,6 +3891,9 @@
       <c r="F187" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G187" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
@@ -3364,6 +3911,9 @@
       <c r="F188" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G188" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
@@ -3381,6 +3931,9 @@
       <c r="F189" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G189" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
@@ -3398,6 +3951,9 @@
       <c r="F190" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G190" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
@@ -3415,6 +3971,9 @@
       <c r="F191" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G191" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
@@ -3432,6 +3991,9 @@
       <c r="F192" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G192" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
@@ -3449,6 +4011,9 @@
       <c r="F193" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G193" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -3466,6 +4031,9 @@
       <c r="F194" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G194" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
@@ -3483,6 +4051,9 @@
       <c r="F195" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G195" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
@@ -3500,6 +4071,9 @@
       <c r="F196" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G196" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
@@ -3517,6 +4091,9 @@
       <c r="F197" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G197" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
@@ -3534,6 +4111,9 @@
       <c r="F198" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G198" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
@@ -3551,6 +4131,9 @@
       <c r="F199" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G199" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
@@ -3568,6 +4151,9 @@
       <c r="F200" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G200" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
@@ -3585,6 +4171,9 @@
       <c r="F201" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G201" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
@@ -3602,6 +4191,9 @@
       <c r="F202" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G202" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
@@ -3619,6 +4211,9 @@
       <c r="F203" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G203" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
@@ -3636,6 +4231,9 @@
       <c r="F204" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G204" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
@@ -3653,6 +4251,9 @@
       <c r="F205" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G205" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
@@ -3670,6 +4271,9 @@
       <c r="F206" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G206" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
@@ -3687,6 +4291,9 @@
       <c r="F207" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G207" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
@@ -3704,6 +4311,9 @@
       <c r="F208" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G208" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
@@ -3721,6 +4331,9 @@
       <c r="F209" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G209" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
@@ -3738,6 +4351,9 @@
       <c r="F210" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G210" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
@@ -3755,6 +4371,9 @@
       <c r="F211" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G211" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
@@ -3772,6 +4391,9 @@
       <c r="F212" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G212" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
@@ -3789,6 +4411,9 @@
       <c r="F213" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G213" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
@@ -3806,6 +4431,9 @@
       <c r="F214" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G214" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
@@ -3823,6 +4451,9 @@
       <c r="F215" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G215" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
@@ -3840,6 +4471,9 @@
       <c r="F216" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G216" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
@@ -3857,6 +4491,9 @@
       <c r="F217" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G217" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
@@ -3874,6 +4511,9 @@
       <c r="F218" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G218" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
@@ -3891,6 +4531,9 @@
       <c r="F219" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G219" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
@@ -3908,6 +4551,9 @@
       <c r="F220" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G220" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
@@ -3925,6 +4571,9 @@
       <c r="F221" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G221" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
@@ -3942,6 +4591,9 @@
       <c r="F222" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G222" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
@@ -3959,6 +4611,9 @@
       <c r="F223" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G223" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
@@ -3976,6 +4631,9 @@
       <c r="F224" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G224" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
@@ -3993,6 +4651,9 @@
       <c r="F225" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G225" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
@@ -4010,6 +4671,9 @@
       <c r="F226" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G226" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
@@ -4027,6 +4691,9 @@
       <c r="F227" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G227" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
@@ -4044,6 +4711,9 @@
       <c r="F228" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G228" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
@@ -4061,6 +4731,9 @@
       <c r="F229" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G229" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
@@ -4078,6 +4751,9 @@
       <c r="F230" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G230" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
@@ -4095,6 +4771,9 @@
       <c r="F231" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G231" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
@@ -4112,6 +4791,9 @@
       <c r="F232" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G232" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
@@ -4129,6 +4811,9 @@
       <c r="F233" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G233" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
@@ -4146,6 +4831,9 @@
       <c r="F234" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G234" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
@@ -4163,6 +4851,9 @@
       <c r="F235" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G235" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
@@ -4180,6 +4871,9 @@
       <c r="F236" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G236" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
@@ -4197,6 +4891,9 @@
       <c r="F237" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G237" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
@@ -4214,6 +4911,9 @@
       <c r="F238" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G238" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
@@ -4231,6 +4931,9 @@
       <c r="F239" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G239" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
@@ -4248,6 +4951,9 @@
       <c r="F240" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G240" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
@@ -4265,6 +4971,9 @@
       <c r="F241" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G241" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
@@ -4282,6 +4991,9 @@
       <c r="F242" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G242" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
@@ -4299,6 +5011,9 @@
       <c r="F243" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G243" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
@@ -4316,6 +5031,9 @@
       <c r="F244" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G244" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
@@ -4333,6 +5051,9 @@
       <c r="F245" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G245" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
@@ -4350,6 +5071,9 @@
       <c r="F246" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G246" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
@@ -4367,6 +5091,9 @@
       <c r="F247" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G247" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
@@ -4384,6 +5111,9 @@
       <c r="F248" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G248" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
@@ -4401,6 +5131,9 @@
       <c r="F249" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G249" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
@@ -4418,6 +5151,9 @@
       <c r="F250" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G250" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
@@ -4435,6 +5171,9 @@
       <c r="F251" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G251" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
@@ -4452,6 +5191,9 @@
       <c r="F252" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G252" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
@@ -4469,6 +5211,9 @@
       <c r="F253" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G253" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
@@ -4486,6 +5231,9 @@
       <c r="F254" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G254" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
@@ -4503,6 +5251,9 @@
       <c r="F255" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G255" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
@@ -4520,6 +5271,9 @@
       <c r="F256" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G256" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
@@ -4537,6 +5291,9 @@
       <c r="F257" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G257" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
@@ -4554,6 +5311,9 @@
       <c r="F258" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G258" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
@@ -4571,6 +5331,9 @@
       <c r="F259" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G259" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
@@ -4588,6 +5351,9 @@
       <c r="F260" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G260" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
@@ -4605,6 +5371,9 @@
       <c r="F261" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G261" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
@@ -4622,6 +5391,9 @@
       <c r="F262" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G262" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
@@ -4639,6 +5411,9 @@
       <c r="F263" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G263" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
@@ -4656,6 +5431,9 @@
       <c r="F264" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G264" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
@@ -4673,6 +5451,9 @@
       <c r="F265" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G265" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
@@ -4690,6 +5471,9 @@
       <c r="F266" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G266" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
@@ -4707,6 +5491,9 @@
       <c r="F267" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G267" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
@@ -4724,6 +5511,9 @@
       <c r="F268" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G268" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
@@ -4741,6 +5531,9 @@
       <c r="F269" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G269" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
@@ -4758,6 +5551,9 @@
       <c r="F270" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G270" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
@@ -4775,6 +5571,9 @@
       <c r="F271" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G271" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
@@ -4792,6 +5591,9 @@
       <c r="F272" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G272" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
@@ -4809,6 +5611,9 @@
       <c r="F273" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G273" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
@@ -4826,6 +5631,9 @@
       <c r="F274" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G274" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
@@ -4843,6 +5651,9 @@
       <c r="F275" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G275" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
@@ -4860,6 +5671,9 @@
       <c r="F276" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G276" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
@@ -4877,6 +5691,9 @@
       <c r="F277" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G277" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
@@ -4894,6 +5711,9 @@
       <c r="F278" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G278" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
@@ -4911,6 +5731,9 @@
       <c r="F279" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G279" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
@@ -4928,6 +5751,9 @@
       <c r="F280" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G280" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
@@ -4945,6 +5771,9 @@
       <c r="F281" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G281" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
@@ -4962,6 +5791,9 @@
       <c r="F282" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G282" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
@@ -4979,6 +5811,9 @@
       <c r="F283" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G283" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
@@ -4996,6 +5831,9 @@
       <c r="F284" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G284" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
@@ -5013,6 +5851,9 @@
       <c r="F285" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G285" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
@@ -5030,6 +5871,9 @@
       <c r="F286" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G286" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
@@ -5047,6 +5891,9 @@
       <c r="F287" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G287" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
@@ -5064,6 +5911,9 @@
       <c r="F288" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G288" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
@@ -5081,6 +5931,9 @@
       <c r="F289" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G289" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
@@ -5098,6 +5951,9 @@
       <c r="F290" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G290" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
@@ -5115,6 +5971,9 @@
       <c r="F291" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G291" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
@@ -5132,6 +5991,9 @@
       <c r="F292" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G292" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
@@ -5149,6 +6011,9 @@
       <c r="F293" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G293" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
@@ -5166,6 +6031,9 @@
       <c r="F294" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G294" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
@@ -5183,6 +6051,9 @@
       <c r="F295" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G295" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
@@ -5200,6 +6071,9 @@
       <c r="F296" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G296" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
@@ -5217,6 +6091,9 @@
       <c r="F297" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G297" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
@@ -5234,6 +6111,9 @@
       <c r="F298" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G298" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
@@ -5251,6 +6131,9 @@
       <c r="F299" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G299" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
@@ -5268,6 +6151,9 @@
       <c r="F300" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G300" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
@@ -5285,6 +6171,9 @@
       <c r="F301" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G301" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
@@ -5302,6 +6191,9 @@
       <c r="F302" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G302" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
@@ -5319,6 +6211,9 @@
       <c r="F303" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G303" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
@@ -5336,6 +6231,9 @@
       <c r="F304" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G304" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
@@ -5353,6 +6251,9 @@
       <c r="F305" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G305" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
@@ -5370,6 +6271,9 @@
       <c r="F306" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G306" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
@@ -5387,6 +6291,9 @@
       <c r="F307" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G307" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
@@ -5404,6 +6311,9 @@
       <c r="F308" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G308" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
@@ -5421,6 +6331,9 @@
       <c r="F309" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G309" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
@@ -5438,6 +6351,9 @@
       <c r="F310" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G310" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
@@ -5455,6 +6371,9 @@
       <c r="F311" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G311" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
@@ -5472,6 +6391,9 @@
       <c r="F312" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G312" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
@@ -5489,6 +6411,9 @@
       <c r="F313" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G313" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
@@ -5506,6 +6431,9 @@
       <c r="F314" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G314" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
@@ -5523,6 +6451,9 @@
       <c r="F315" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G315" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
@@ -5540,6 +6471,9 @@
       <c r="F316" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G316" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
@@ -5557,6 +6491,9 @@
       <c r="F317" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G317" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
@@ -5574,6 +6511,9 @@
       <c r="F318" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G318" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
@@ -5591,6 +6531,9 @@
       <c r="F319" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G319" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
@@ -5608,6 +6551,9 @@
       <c r="F320" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G320" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
@@ -5625,6 +6571,9 @@
       <c r="F321" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G321" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
@@ -5642,6 +6591,9 @@
       <c r="F322" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G322" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
@@ -5659,6 +6611,9 @@
       <c r="F323" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G323" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
@@ -5676,6 +6631,9 @@
       <c r="F324" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G324" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
@@ -5693,6 +6651,9 @@
       <c r="F325" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G325" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
@@ -5710,6 +6671,9 @@
       <c r="F326" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G326" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
@@ -5727,6 +6691,9 @@
       <c r="F327" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G327" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
@@ -5744,6 +6711,9 @@
       <c r="F328" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G328" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
@@ -5761,6 +6731,9 @@
       <c r="F329" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G329" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
@@ -5778,6 +6751,9 @@
       <c r="F330" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G330" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
@@ -5795,6 +6771,9 @@
       <c r="F331" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G331" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
@@ -5812,6 +6791,9 @@
       <c r="F332" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G332" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
@@ -5829,6 +6811,9 @@
       <c r="F333" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G333" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
@@ -5846,6 +6831,9 @@
       <c r="F334" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G334" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
@@ -5863,6 +6851,9 @@
       <c r="F335" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G335" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
@@ -5880,6 +6871,9 @@
       <c r="F336" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G336" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
@@ -5897,6 +6891,9 @@
       <c r="F337" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G337" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
@@ -5914,6 +6911,9 @@
       <c r="F338" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G338" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
@@ -5931,6 +6931,9 @@
       <c r="F339" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G339" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
@@ -5948,6 +6951,9 @@
       <c r="F340" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G340" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
@@ -5965,6 +6971,9 @@
       <c r="F341" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G341" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
@@ -5982,6 +6991,9 @@
       <c r="F342" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G342" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
@@ -5999,6 +7011,9 @@
       <c r="F343" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G343" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
@@ -6016,6 +7031,9 @@
       <c r="F344" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G344" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
@@ -6033,6 +7051,9 @@
       <c r="F345" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G345" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
@@ -6050,6 +7071,9 @@
       <c r="F346" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G346" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
@@ -6067,6 +7091,9 @@
       <c r="F347" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G347" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
@@ -6084,6 +7111,9 @@
       <c r="F348" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G348" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
@@ -6101,6 +7131,9 @@
       <c r="F349" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G349" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
@@ -6118,6 +7151,9 @@
       <c r="F350" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G350" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
@@ -6135,6 +7171,9 @@
       <c r="F351" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G351" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
@@ -6152,6 +7191,9 @@
       <c r="F352" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G352" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
@@ -6169,6 +7211,9 @@
       <c r="F353" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G353" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
@@ -6186,6 +7231,9 @@
       <c r="F354" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G354" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
@@ -6203,6 +7251,9 @@
       <c r="F355" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G355" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
@@ -6220,6 +7271,9 @@
       <c r="F356" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G356" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
@@ -6237,6 +7291,9 @@
       <c r="F357" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G357" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
@@ -6254,6 +7311,9 @@
       <c r="F358" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G358" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
@@ -6271,6 +7331,9 @@
       <c r="F359" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G359" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
@@ -6288,6 +7351,9 @@
       <c r="F360" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G360" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
@@ -6305,6 +7371,9 @@
       <c r="F361" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G361" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
@@ -6322,6 +7391,9 @@
       <c r="F362" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G362" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
@@ -6339,6 +7411,9 @@
       <c r="F363" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G363" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
@@ -6356,6 +7431,9 @@
       <c r="F364" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G364" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
@@ -6373,6 +7451,9 @@
       <c r="F365" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G365" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
@@ -6390,6 +7471,9 @@
       <c r="F366" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G366" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
@@ -6407,6 +7491,9 @@
       <c r="F367" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G367" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
@@ -6424,6 +7511,9 @@
       <c r="F368" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G368" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
@@ -6441,6 +7531,9 @@
       <c r="F369" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G369" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
@@ -6458,6 +7551,9 @@
       <c r="F370" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G370" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
@@ -6475,6 +7571,9 @@
       <c r="F371" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G371" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
@@ -6492,6 +7591,9 @@
       <c r="F372" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G372" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
@@ -6509,6 +7611,9 @@
       <c r="F373" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G373" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
@@ -6526,6 +7631,9 @@
       <c r="F374" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G374" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
@@ -6543,6 +7651,9 @@
       <c r="F375" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G375" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
@@ -6560,6 +7671,9 @@
       <c r="F376" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G376" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
@@ -6577,6 +7691,9 @@
       <c r="F377" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G377" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
@@ -6594,6 +7711,9 @@
       <c r="F378" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G378" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
@@ -6611,6 +7731,9 @@
       <c r="F379" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G379" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
@@ -6628,6 +7751,9 @@
       <c r="F380" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G380" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
@@ -6645,6 +7771,9 @@
       <c r="F381" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G381" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
@@ -6662,6 +7791,9 @@
       <c r="F382" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G382" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
@@ -6679,6 +7811,9 @@
       <c r="F383" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G383" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
@@ -6696,6 +7831,9 @@
       <c r="F384" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G384" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
@@ -6713,6 +7851,9 @@
       <c r="F385" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G385" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
@@ -6730,6 +7871,9 @@
       <c r="F386" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G386" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
@@ -6747,6 +7891,9 @@
       <c r="F387" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G387" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
@@ -6764,6 +7911,9 @@
       <c r="F388" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G388" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
@@ -6781,6 +7931,9 @@
       <c r="F389" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G389" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
@@ -6798,6 +7951,9 @@
       <c r="F390" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G390" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
@@ -6815,6 +7971,9 @@
       <c r="F391" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G391" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
@@ -6832,6 +7991,9 @@
       <c r="F392" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G392" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
@@ -6849,6 +8011,9 @@
       <c r="F393" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G393" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
@@ -6866,6 +8031,9 @@
       <c r="F394" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G394" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
@@ -6883,6 +8051,9 @@
       <c r="F395" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G395" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
@@ -6900,6 +8071,9 @@
       <c r="F396" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G396" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
@@ -6917,6 +8091,9 @@
       <c r="F397" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G397" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
@@ -6934,6 +8111,9 @@
       <c r="F398" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G398" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
@@ -6951,6 +8131,9 @@
       <c r="F399" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G399" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
@@ -6968,6 +8151,9 @@
       <c r="F400" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G400" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
@@ -6985,6 +8171,9 @@
       <c r="F401" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G401" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
@@ -7002,6 +8191,9 @@
       <c r="F402" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G402" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
@@ -7019,6 +8211,9 @@
       <c r="F403" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G403" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
@@ -7036,6 +8231,9 @@
       <c r="F404" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G404" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
@@ -7053,6 +8251,9 @@
       <c r="F405" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G405" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
@@ -7070,6 +8271,9 @@
       <c r="F406" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G406" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
@@ -7087,6 +8291,9 @@
       <c r="F407" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G407" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
@@ -7104,6 +8311,9 @@
       <c r="F408" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G408" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
@@ -7121,6 +8331,9 @@
       <c r="F409" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G409" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
@@ -7138,6 +8351,9 @@
       <c r="F410" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G410" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
@@ -7155,6 +8371,9 @@
       <c r="F411" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G411" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
@@ -7172,6 +8391,9 @@
       <c r="F412" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G412" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
@@ -7189,6 +8411,9 @@
       <c r="F413" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G413" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
@@ -7206,6 +8431,9 @@
       <c r="F414" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G414" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
@@ -7223,6 +8451,9 @@
       <c r="F415" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G415" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
@@ -7240,6 +8471,9 @@
       <c r="F416" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G416" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
@@ -7257,6 +8491,9 @@
       <c r="F417" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G417" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
@@ -7274,6 +8511,9 @@
       <c r="F418" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G418" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
@@ -7291,6 +8531,9 @@
       <c r="F419" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G419" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
@@ -7308,6 +8551,9 @@
       <c r="F420" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G420" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
@@ -7325,6 +8571,9 @@
       <c r="F421" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G421" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
@@ -7342,6 +8591,9 @@
       <c r="F422" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G422" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
@@ -7359,6 +8611,9 @@
       <c r="F423" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G423" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
@@ -7376,6 +8631,9 @@
       <c r="F424" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G424" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
@@ -7393,6 +8651,9 @@
       <c r="F425" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G425" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
@@ -7410,6 +8671,9 @@
       <c r="F426" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G426" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
@@ -7427,6 +8691,9 @@
       <c r="F427" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G427" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
@@ -7444,6 +8711,9 @@
       <c r="F428" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G428" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
@@ -7461,6 +8731,9 @@
       <c r="F429" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G429" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
@@ -7478,6 +8751,9 @@
       <c r="F430" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G430" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
@@ -7495,6 +8771,9 @@
       <c r="F431" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G431" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
@@ -7512,6 +8791,9 @@
       <c r="F432" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G432" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
@@ -7529,6 +8811,9 @@
       <c r="F433" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G433" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
@@ -7546,6 +8831,9 @@
       <c r="F434" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G434" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
@@ -7563,6 +8851,9 @@
       <c r="F435" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G435" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
@@ -7580,6 +8871,9 @@
       <c r="F436" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G436" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
@@ -7597,6 +8891,9 @@
       <c r="F437" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G437" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
@@ -7614,6 +8911,9 @@
       <c r="F438" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G438" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
@@ -7631,6 +8931,9 @@
       <c r="F439" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G439" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
@@ -7648,6 +8951,9 @@
       <c r="F440" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G440" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
@@ -7665,6 +8971,9 @@
       <c r="F441" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G441" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
@@ -7682,6 +8991,9 @@
       <c r="F442" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G442" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
@@ -7699,6 +9011,9 @@
       <c r="F443" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G443" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
@@ -7716,6 +9031,9 @@
       <c r="F444" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G444" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
@@ -7733,6 +9051,9 @@
       <c r="F445" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G445" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
@@ -7750,6 +9071,9 @@
       <c r="F446" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G446" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
@@ -7767,6 +9091,9 @@
       <c r="F447" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G447" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
@@ -7784,6 +9111,9 @@
       <c r="F448" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G448" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
@@ -7801,6 +9131,9 @@
       <c r="F449" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G449" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
@@ -7818,6 +9151,9 @@
       <c r="F450" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G450" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
@@ -7835,6 +9171,9 @@
       <c r="F451" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G451" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
@@ -7852,6 +9191,9 @@
       <c r="F452" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G452" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
@@ -7869,6 +9211,9 @@
       <c r="F453" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G453" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
@@ -7886,6 +9231,9 @@
       <c r="F454" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G454" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
@@ -7903,6 +9251,9 @@
       <c r="F455" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G455" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
@@ -7920,6 +9271,9 @@
       <c r="F456" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G456" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
@@ -7937,6 +9291,9 @@
       <c r="F457" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G457" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
@@ -7954,6 +9311,9 @@
       <c r="F458" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G458" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
@@ -7971,6 +9331,9 @@
       <c r="F459" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G459" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
@@ -7988,6 +9351,9 @@
       <c r="F460" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G460" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
@@ -8005,6 +9371,9 @@
       <c r="F461" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G461" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
@@ -8022,6 +9391,9 @@
       <c r="F462" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G462" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
@@ -8039,6 +9411,9 @@
       <c r="F463" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G463" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
@@ -8056,6 +9431,9 @@
       <c r="F464" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G464" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
@@ -8073,6 +9451,9 @@
       <c r="F465" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G465" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
@@ -8090,6 +9471,9 @@
       <c r="F466" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G466" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
@@ -8107,6 +9491,9 @@
       <c r="F467" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G467" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
@@ -8124,6 +9511,9 @@
       <c r="F468" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G468" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
@@ -8141,6 +9531,9 @@
       <c r="F469" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G469" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
@@ -8158,6 +9551,9 @@
       <c r="F470" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G470" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
@@ -8175,6 +9571,9 @@
       <c r="F471" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G471" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
@@ -8192,6 +9591,9 @@
       <c r="F472" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G472" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
@@ -8209,6 +9611,9 @@
       <c r="F473" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G473" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
@@ -8226,6 +9631,9 @@
       <c r="F474" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G474" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
@@ -8243,6 +9651,9 @@
       <c r="F475" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G475" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
@@ -8260,6 +9671,9 @@
       <c r="F476" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G476" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
@@ -8277,6 +9691,9 @@
       <c r="F477" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G477" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
@@ -8294,6 +9711,9 @@
       <c r="F478" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G478" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
@@ -8311,6 +9731,9 @@
       <c r="F479" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G479" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
@@ -8328,6 +9751,9 @@
       <c r="F480" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G480" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
@@ -8345,6 +9771,9 @@
       <c r="F481" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G481" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
@@ -8362,6 +9791,9 @@
       <c r="F482" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G482" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
@@ -8379,6 +9811,9 @@
       <c r="F483" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G483" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
@@ -8396,6 +9831,9 @@
       <c r="F484" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G484" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
@@ -8413,6 +9851,9 @@
       <c r="F485" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G485" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
@@ -8430,6 +9871,9 @@
       <c r="F486" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G486" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
@@ -8447,6 +9891,9 @@
       <c r="F487" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G487" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
@@ -8464,6 +9911,9 @@
       <c r="F488" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G488" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
@@ -8481,6 +9931,9 @@
       <c r="F489" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G489" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
@@ -8498,6 +9951,9 @@
       <c r="F490" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G490" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
@@ -8515,6 +9971,9 @@
       <c r="F491" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G491" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
@@ -8532,6 +9991,9 @@
       <c r="F492" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G492" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
@@ -8549,6 +10011,9 @@
       <c r="F493" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G493" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
@@ -8566,6 +10031,9 @@
       <c r="F494" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G494" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
@@ -8583,6 +10051,9 @@
       <c r="F495" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G495" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
@@ -8600,6 +10071,9 @@
       <c r="F496" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G496" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
@@ -8617,6 +10091,9 @@
       <c r="F497" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G497" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="n">
@@ -8634,6 +10111,9 @@
       <c r="F498" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G498" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
@@ -8651,6 +10131,9 @@
       <c r="F499" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G499" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
@@ -8668,6 +10151,9 @@
       <c r="F500" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G500" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="n">
@@ -8685,6 +10171,9 @@
       <c r="F501" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G501" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="n">
@@ -8702,6 +10191,9 @@
       <c r="F502" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G502" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
@@ -8719,6 +10211,9 @@
       <c r="F503" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G503" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
@@ -8736,6 +10231,9 @@
       <c r="F504" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G504" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="n">
@@ -8753,6 +10251,9 @@
       <c r="F505" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G505" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
@@ -8770,6 +10271,9 @@
       <c r="F506" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G506" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
@@ -8787,6 +10291,9 @@
       <c r="F507" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G507" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
@@ -8804,6 +10311,9 @@
       <c r="F508" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G508" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
@@ -8821,6 +10331,9 @@
       <c r="F509" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G509" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
@@ -8838,6 +10351,9 @@
       <c r="F510" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G510" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
@@ -8855,6 +10371,9 @@
       <c r="F511" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G511" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="n">
@@ -8872,6 +10391,9 @@
       <c r="F512" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G512" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
@@ -8889,6 +10411,9 @@
       <c r="F513" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G513" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
@@ -8906,6 +10431,9 @@
       <c r="F514" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G514" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
@@ -8923,6 +10451,9 @@
       <c r="F515" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G515" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
@@ -8940,6 +10471,9 @@
       <c r="F516" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G516" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="n">
@@ -8957,6 +10491,9 @@
       <c r="F517" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G517" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="n">
@@ -8974,6 +10511,9 @@
       <c r="F518" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G518" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
@@ -8991,6 +10531,9 @@
       <c r="F519" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G519" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
@@ -9008,6 +10551,9 @@
       <c r="F520" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G520" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
@@ -9025,6 +10571,9 @@
       <c r="F521" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G521" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
@@ -9042,6 +10591,9 @@
       <c r="F522" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G522" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
@@ -9059,6 +10611,9 @@
       <c r="F523" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G523" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
@@ -9076,6 +10631,9 @@
       <c r="F524" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G524" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
@@ -9093,6 +10651,9 @@
       <c r="F525" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G525" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
@@ -9110,6 +10671,9 @@
       <c r="F526" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G526" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
@@ -9127,6 +10691,9 @@
       <c r="F527" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G527" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
@@ -9144,6 +10711,9 @@
       <c r="F528" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G528" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
@@ -9161,6 +10731,9 @@
       <c r="F529" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G529" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
@@ -9178,6 +10751,9 @@
       <c r="F530" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G530" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
@@ -9195,6 +10771,9 @@
       <c r="F531" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G531" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
@@ -9212,6 +10791,9 @@
       <c r="F532" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G532" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
@@ -9229,6 +10811,9 @@
       <c r="F533" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G533" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
@@ -9246,6 +10831,9 @@
       <c r="F534" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G534" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
@@ -9263,6 +10851,9 @@
       <c r="F535" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G535" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
@@ -9280,6 +10871,9 @@
       <c r="F536" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G536" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
@@ -9297,6 +10891,9 @@
       <c r="F537" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G537" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
@@ -9314,6 +10911,9 @@
       <c r="F538" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G538" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
@@ -9331,6 +10931,9 @@
       <c r="F539" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G539" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
@@ -9348,6 +10951,9 @@
       <c r="F540" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G540" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
@@ -9365,6 +10971,9 @@
       <c r="F541" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G541" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
@@ -9382,6 +10991,9 @@
       <c r="F542" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G542" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
@@ -9399,6 +11011,9 @@
       <c r="F543" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G543" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
@@ -9416,6 +11031,9 @@
       <c r="F544" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G544" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
@@ -9433,6 +11051,9 @@
       <c r="F545" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G545" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
@@ -9450,6 +11071,9 @@
       <c r="F546" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G546" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
@@ -9467,6 +11091,9 @@
       <c r="F547" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G547" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
@@ -9484,6 +11111,9 @@
       <c r="F548" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G548" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
@@ -9501,6 +11131,9 @@
       <c r="F549" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G549" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
@@ -9518,6 +11151,9 @@
       <c r="F550" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G550" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
@@ -9535,6 +11171,9 @@
       <c r="F551" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G551" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
@@ -9552,6 +11191,9 @@
       <c r="F552" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G552" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
@@ -9569,6 +11211,9 @@
       <c r="F553" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G553" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
@@ -9586,6 +11231,9 @@
       <c r="F554" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G554" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
@@ -9603,6 +11251,9 @@
       <c r="F555" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G555" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
@@ -9620,6 +11271,9 @@
       <c r="F556" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G556" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
@@ -9637,6 +11291,9 @@
       <c r="F557" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G557" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
@@ -9654,6 +11311,9 @@
       <c r="F558" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G558" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
@@ -9671,6 +11331,9 @@
       <c r="F559" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G559" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
@@ -9688,6 +11351,9 @@
       <c r="F560" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G560" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
@@ -9705,6 +11371,9 @@
       <c r="F561" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G561" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
@@ -9722,6 +11391,9 @@
       <c r="F562" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G562" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
@@ -9739,6 +11411,9 @@
       <c r="F563" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G563" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
@@ -9756,6 +11431,9 @@
       <c r="F564" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G564" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
@@ -9773,6 +11451,9 @@
       <c r="F565" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G565" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
@@ -9790,6 +11471,9 @@
       <c r="F566" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G566" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
@@ -9807,6 +11491,9 @@
       <c r="F567" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G567" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
@@ -9824,6 +11511,9 @@
       <c r="F568" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G568" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
@@ -9841,6 +11531,9 @@
       <c r="F569" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G569" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
@@ -9858,6 +11551,9 @@
       <c r="F570" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G570" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
@@ -9875,6 +11571,9 @@
       <c r="F571" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G571" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
@@ -9892,6 +11591,9 @@
       <c r="F572" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G572" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
@@ -9909,6 +11611,9 @@
       <c r="F573" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G573" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
@@ -9926,6 +11631,9 @@
       <c r="F574" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G574" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
@@ -9943,6 +11651,9 @@
       <c r="F575" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G575" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
@@ -9960,6 +11671,9 @@
       <c r="F576" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G576" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
@@ -9977,6 +11691,9 @@
       <c r="F577" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G577" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
@@ -9994,6 +11711,9 @@
       <c r="F578" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G578" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
@@ -10011,6 +11731,9 @@
       <c r="F579" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G579" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
@@ -10028,6 +11751,9 @@
       <c r="F580" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G580" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
@@ -10045,6 +11771,9 @@
       <c r="F581" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G581" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="n">
@@ -10062,6 +11791,9 @@
       <c r="F582" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G582" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
@@ -10079,6 +11811,9 @@
       <c r="F583" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G583" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
@@ -10096,6 +11831,9 @@
       <c r="F584" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G584" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
@@ -10113,6 +11851,9 @@
       <c r="F585" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G585" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
@@ -10130,6 +11871,9 @@
       <c r="F586" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G586" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
@@ -10147,6 +11891,9 @@
       <c r="F587" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G587" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
@@ -10164,6 +11911,9 @@
       <c r="F588" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G588" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
@@ -10181,6 +11931,9 @@
       <c r="F589" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G589" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="n">
@@ -10198,6 +11951,9 @@
       <c r="F590" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G590" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="n">
@@ -10215,6 +11971,9 @@
       <c r="F591" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G591" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="n">
@@ -10232,6 +11991,9 @@
       <c r="F592" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G592" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="n">
@@ -10249,6 +12011,9 @@
       <c r="F593" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G593" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="n">
@@ -10266,6 +12031,9 @@
       <c r="F594" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G594" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
@@ -10283,6 +12051,9 @@
       <c r="F595" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G595" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="n">
@@ -10300,6 +12071,9 @@
       <c r="F596" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G596" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
@@ -10317,6 +12091,9 @@
       <c r="F597" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G597" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="n">
@@ -10334,6 +12111,9 @@
       <c r="F598" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G598" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="n">
@@ -10351,6 +12131,9 @@
       <c r="F599" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G599" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
@@ -10368,6 +12151,9 @@
       <c r="F600" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G600" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
@@ -10385,6 +12171,9 @@
       <c r="F601" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G601" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
@@ -10402,6 +12191,9 @@
       <c r="F602" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G602" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
@@ -10417,6 +12209,9 @@
         <v>0</v>
       </c>
       <c r="F603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G603" s="0" t="n">
         <v>0</v>
       </c>
     </row>
